--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Project\OpenCartV1.0\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="2910"/>
   </bookViews>
@@ -10,45 +15,85 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>Test@12345</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>Test@12346</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>niranjantest@gmail.com</t>
-  </si>
-  <si>
     <t>res</t>
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>pavanoltraining@gmail.com</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>lakshmi@yahoo.com</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>laksh@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>laks@yahoo.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,23 +137,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,7 +440,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="A4:C5 C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,53 +450,71 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -474,7 +542,16 @@
       <c r="C11" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="2910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="4920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -141,9 +141,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,109 +436,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Project\OpenCartV1.0\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Project\Selenium_Project\OpenCartV1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>password</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>abc123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -113,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,12 +127,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,7 +156,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,13 +488,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -494,38 +510,23 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="4920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -145,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,15 +160,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,17 +443,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -508,16 +499,6 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -527,6 +508,5 @@
     <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>